--- a/IT系统后阶段开发时间计划表-第六版.xlsx
+++ b/IT系统后阶段开发时间计划表-第六版.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>里程碑</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -395,6 +395,14 @@
   </si>
   <si>
     <t>2016/11/7~2016/12/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送者模式设计（邮件排队机制）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,34 +664,116 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -694,88 +784,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1057,10 +1065,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O75"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1091,55 +1102,55 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="31"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="27"/>
       <c r="L2" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33" t="s">
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="35" t="s">
+      <c r="L3" s="29"/>
+      <c r="M3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="30" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1155,83 +1166,83 @@
       <c r="J4" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="42"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="30"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="33" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="20">
         <v>42681</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="20">
         <v>42683</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="21">
         <v>3</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="32"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="21"/>
       <c r="K6" s="12"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="23"/>
+      <c r="N6" s="19"/>
     </row>
     <row r="7" spans="2:15" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="49"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="21"/>
       <c r="K7" s="12"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="23"/>
+      <c r="N7" s="19"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="49"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1240,707 +1251,711 @@
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="50">
         <v>42684</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="50">
         <v>42690</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="53">
         <v>6</v>
       </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="5"/>
+      <c r="K8" s="12">
+        <v>42684</v>
+      </c>
+      <c r="L8" s="12">
+        <v>42684</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="49"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="4" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="12">
+        <v>42684</v>
+      </c>
+      <c r="L9" s="12"/>
       <c r="M9" s="4"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="49"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="27"/>
+        <v>45</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="12"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="49"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15" t="s">
-        <v>62</v>
-      </c>
+    <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="40"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="28">
-        <v>42691</v>
-      </c>
-      <c r="I11" s="28">
-        <v>42693</v>
-      </c>
-      <c r="J11" s="25">
-        <v>3</v>
-      </c>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="12"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="49"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33" t="s">
+        <v>62</v>
+      </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="26"/>
+      <c r="H12" s="50">
+        <v>42691</v>
+      </c>
+      <c r="I12" s="50">
+        <v>42693</v>
+      </c>
+      <c r="J12" s="53">
+        <v>3</v>
+      </c>
       <c r="K12" s="12"/>
       <c r="L12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="49"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+    <row r="13" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="40"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="26"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="12"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="49"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
       <c r="F14" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="27"/>
+        <v>43</v>
+      </c>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="12"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="9"/>
     </row>
-    <row r="15" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="49"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15" t="s">
-        <v>63</v>
-      </c>
+    <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="40"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="28">
-        <v>42695</v>
-      </c>
-      <c r="I15" s="28">
-        <v>42698</v>
-      </c>
-      <c r="J15" s="25">
-        <v>4</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="12"/>
       <c r="L15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="49"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33" t="s">
+        <v>63</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="26"/>
+      <c r="H16" s="50">
+        <v>42695</v>
+      </c>
+      <c r="I16" s="50">
+        <v>42698</v>
+      </c>
+      <c r="J16" s="53">
+        <v>4</v>
+      </c>
       <c r="K16" s="12"/>
       <c r="L16" s="5"/>
       <c r="M16" s="4"/>
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="49"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="12"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="49"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="12"/>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="49"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+    <row r="19" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="40"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="49"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="49"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="12"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="49"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="26"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="49"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="26"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="12"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="49"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
       <c r="F24" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="26"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="12"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="49"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="27"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="12"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="49"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15" t="s">
-        <v>64</v>
-      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
       <c r="F26" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="28">
-        <v>42699</v>
-      </c>
-      <c r="I26" s="28">
-        <v>42703</v>
-      </c>
-      <c r="J26" s="25">
-        <v>4</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="12"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="49"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33" t="s">
+        <v>64</v>
+      </c>
       <c r="F27" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="26"/>
+      <c r="H27" s="50">
+        <v>42699</v>
+      </c>
+      <c r="I27" s="50">
+        <v>42703</v>
+      </c>
+      <c r="J27" s="53">
+        <v>4</v>
+      </c>
       <c r="K27" s="12"/>
       <c r="L27" s="5"/>
       <c r="M27" s="4"/>
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="49"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="26"/>
+        <v>44</v>
+      </c>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="12"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="49"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="12"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="49"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="26"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="12"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="49"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="26"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="12"/>
       <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="49"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="26"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="12"/>
       <c r="L32" s="5"/>
       <c r="M32" s="4"/>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="49"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="12"/>
       <c r="L33" s="5"/>
       <c r="M33" s="4"/>
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="49"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
       <c r="F34" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="26"/>
+        <v>43</v>
+      </c>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="12"/>
       <c r="L34" s="5"/>
       <c r="M34" s="4"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="49"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="27"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="12"/>
       <c r="L35" s="5"/>
       <c r="M35" s="4"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="49"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15" t="s">
-        <v>65</v>
-      </c>
+    <row r="36" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="40"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
       <c r="F36" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="28">
-        <v>42704</v>
-      </c>
-      <c r="I36" s="28">
-        <v>42710</v>
-      </c>
-      <c r="J36" s="25">
-        <v>6</v>
-      </c>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="12"/>
       <c r="L36" s="5"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="47"/>
-    </row>
-    <row r="37" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="49"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
+      <c r="N36" s="9"/>
+    </row>
+    <row r="37" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="40"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33" t="s">
+        <v>65</v>
+      </c>
       <c r="F37" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="26"/>
+      <c r="H37" s="50">
+        <v>42704</v>
+      </c>
+      <c r="I37" s="50">
+        <v>42710</v>
+      </c>
+      <c r="J37" s="53">
+        <v>6</v>
+      </c>
       <c r="K37" s="12"/>
       <c r="L37" s="5"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="47"/>
-    </row>
-    <row r="38" spans="3:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="49"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="40"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="27"/>
+        <v>44</v>
+      </c>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="12"/>
       <c r="L38" s="5"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="47"/>
-    </row>
-    <row r="39" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="49"/>
-      <c r="D39" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="3:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="40"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="4" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="28">
-        <v>42711</v>
-      </c>
-      <c r="I39" s="28">
-        <v>42714</v>
-      </c>
-      <c r="J39" s="25">
-        <v>4</v>
-      </c>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="12"/>
       <c r="L39" s="5"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="13"/>
+      <c r="N39" s="17"/>
     </row>
     <row r="40" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="49"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>69</v>
+      </c>
       <c r="F40" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="50">
+        <v>42711</v>
+      </c>
+      <c r="I40" s="50">
+        <v>42714</v>
+      </c>
+      <c r="J40" s="53">
+        <v>4</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="5"/>
       <c r="M40" s="4"/>
       <c r="N40" s="13"/>
     </row>
     <row r="41" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="49"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="27"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="12"/>
       <c r="L41" s="5"/>
       <c r="M41" s="4"/>
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="49"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="28">
-        <v>42716</v>
-      </c>
-      <c r="I42" s="28">
-        <v>42728</v>
-      </c>
-      <c r="J42" s="25">
-        <v>12</v>
-      </c>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="12"/>
       <c r="L42" s="5"/>
       <c r="M42" s="4"/>
       <c r="N42" s="13"/>
     </row>
     <row r="43" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="49"/>
-      <c r="D43" s="15"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="33"/>
       <c r="E43" s="8" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="29"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="26"/>
+      <c r="H43" s="50">
+        <v>42716</v>
+      </c>
+      <c r="I43" s="50">
+        <v>42728</v>
+      </c>
+      <c r="J43" s="53">
+        <v>12</v>
+      </c>
       <c r="K43" s="12"/>
       <c r="L43" s="5"/>
       <c r="M43" s="4"/>
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="49"/>
-      <c r="D44" s="15"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="33"/>
       <c r="E44" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>75</v>
@@ -1948,19 +1963,19 @@
       <c r="G44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="29"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="26"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="12"/>
       <c r="L44" s="5"/>
       <c r="M44" s="4"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="49"/>
-      <c r="D45" s="15"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="33"/>
       <c r="E45" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>75</v>
@@ -1968,19 +1983,19 @@
       <c r="G45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="26"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="12"/>
       <c r="L45" s="5"/>
       <c r="M45" s="4"/>
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="49"/>
-      <c r="D46" s="15"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="33"/>
       <c r="E46" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>75</v>
@@ -1988,262 +2003,264 @@
       <c r="G46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="27"/>
+      <c r="H46" s="51"/>
+      <c r="I46" s="51"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="12"/>
       <c r="L46" s="5"/>
       <c r="M46" s="4"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="49"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="15" t="s">
-        <v>76</v>
+      <c r="C47" s="40"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="28">
-        <v>42730</v>
-      </c>
-      <c r="I47" s="28">
-        <v>42732</v>
-      </c>
-      <c r="J47" s="25">
-        <v>3</v>
-      </c>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
+      <c r="J47" s="55"/>
       <c r="K47" s="12"/>
       <c r="L47" s="5"/>
       <c r="M47" s="4"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="49"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="F48" s="4" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="29"/>
-      <c r="I48" s="29"/>
-      <c r="J48" s="26"/>
+      <c r="H48" s="50">
+        <v>42730</v>
+      </c>
+      <c r="I48" s="50">
+        <v>42732</v>
+      </c>
+      <c r="J48" s="53">
+        <v>3</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="5"/>
       <c r="M48" s="4"/>
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="49"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="4" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="29"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="26"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="12"/>
       <c r="L49" s="5"/>
       <c r="M49" s="4"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="49"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="15"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="33"/>
       <c r="F50" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="26"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="54"/>
       <c r="K50" s="12"/>
       <c r="L50" s="5"/>
       <c r="M50" s="4"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="49"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="15"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="33"/>
       <c r="F51" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="26"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="54"/>
       <c r="K51" s="12"/>
       <c r="L51" s="5"/>
       <c r="M51" s="4"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="49"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="15"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="27"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="54"/>
       <c r="K52" s="12"/>
       <c r="L52" s="5"/>
       <c r="M52" s="4"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="49"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="21" t="s">
+    <row r="53" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="40"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="13"/>
+    </row>
+    <row r="54" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="40"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="51" t="s">
+      <c r="G54" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="H53" s="28">
+      <c r="H54" s="50">
         <v>42733</v>
       </c>
-      <c r="I53" s="28">
+      <c r="I54" s="50">
         <v>42733</v>
       </c>
-      <c r="J53" s="25">
+      <c r="J54" s="53">
         <v>1</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="7"/>
-    </row>
-    <row r="54" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="49"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G54" s="52"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="27"/>
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="5"/>
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="49"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="21" t="s">
+      <c r="C55" s="40"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="7"/>
+    </row>
+    <row r="56" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="40"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F56" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="28">
-        <v>42734</v>
-      </c>
-      <c r="I55" s="28">
-        <v>42734</v>
-      </c>
-      <c r="J55" s="25">
-        <v>1</v>
-      </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="43"/>
-    </row>
-    <row r="56" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="49"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="14" t="s">
-        <v>12</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="26"/>
+      <c r="H56" s="50">
+        <v>42734</v>
+      </c>
+      <c r="I56" s="50">
+        <v>42734</v>
+      </c>
+      <c r="J56" s="53">
+        <v>1</v>
+      </c>
       <c r="K56" s="10"/>
       <c r="L56" s="8"/>
       <c r="M56" s="4"/>
-      <c r="N56" s="43"/>
+      <c r="N56" s="16"/>
     </row>
     <row r="57" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="50"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>19</v>
+      <c r="C57" s="40"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="8"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="10"/>
       <c r="L57" s="8"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="7"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="16"/>
     </row>
     <row r="58" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="F58" s="4" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="21"/>
+        <v>8</v>
+      </c>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="55"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="5"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="49"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
+      <c r="C59" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
       <c r="F59" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>45</v>
@@ -2257,78 +2274,82 @@
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="49"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
       <c r="F60" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="22"/>
+      <c r="J60" s="49"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="5"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="49"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
       <c r="F61" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="22"/>
+      <c r="J61" s="49"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="5"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="50"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
       <c r="F62" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="16"/>
+      <c r="J62" s="49"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="5"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="21"/>
+      <c r="J63" s="23"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="5"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="49"/>
-      <c r="D64" s="34"/>
+      <c r="C64" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" s="46"/>
       <c r="E64" s="22"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -2341,142 +2362,156 @@
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="49"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="22"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="49"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="22"/>
+      <c r="J65" s="49"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="5"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="50"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="16"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="49"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="16"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="5"/>
       <c r="N66" s="7"/>
     </row>
-    <row r="67" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="54" t="s">
+    <row r="67" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="41"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="7"/>
+    </row>
+    <row r="68" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="53" t="s">
+      <c r="D68" s="31"/>
+      <c r="E68" s="31"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="31"/>
+      <c r="L68" s="31"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F69" s="1"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="F73" s="1"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="F74" s="1"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="J58:J62"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="H47:H52"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="H55:H57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="H42:H46"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="J42:J46"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J25"/>
-    <mergeCell ref="J26:J35"/>
-    <mergeCell ref="J36:J38"/>
-    <mergeCell ref="H26:H35"/>
-    <mergeCell ref="I26:I35"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="H15:H25"/>
-    <mergeCell ref="I15:I25"/>
-    <mergeCell ref="E58:E62"/>
-    <mergeCell ref="D58:D62"/>
-    <mergeCell ref="C58:C62"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D47:D57"/>
-    <mergeCell ref="C5:C57"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E25"/>
-    <mergeCell ref="E26:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="D5:D38"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="D39:D46"/>
-    <mergeCell ref="C67:M67"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J16:J26"/>
+    <mergeCell ref="J27:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="H27:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="D5:D39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="C68:M68"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E48:E53"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="D48:D58"/>
+    <mergeCell ref="C5:C58"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E16:E26"/>
+    <mergeCell ref="E27:E36"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E47:E52"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="N5:N7"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="J5:J7"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H16:H26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/IT系统后阶段开发时间计划表-第六版.xlsx
+++ b/IT系统后阶段开发时间计划表-第六版.xlsx
@@ -674,6 +674,108 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -681,108 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1070,8 +1070,8 @@
   </sheetPr>
   <dimension ref="B1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1102,55 +1102,55 @@
       <c r="O1" s="6"/>
     </row>
     <row r="2" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="24" t="s">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="47" t="s">
         <v>93</v>
       </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
     </row>
     <row r="3" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="29" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="29"/>
-      <c r="M3" s="28" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1172,77 +1172,77 @@
       <c r="L4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="30"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="34" t="s">
         <v>60</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="54">
         <v>42681</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="54">
         <v>42683</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="55">
         <v>3</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="5"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="40"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="12"/>
       <c r="L6" s="5"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="19"/>
+      <c r="N6" s="53"/>
     </row>
     <row r="7" spans="2:15" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="40"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="12"/>
       <c r="L7" s="5"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="19"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="40"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -1251,84 +1251,78 @@
       <c r="G8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="22">
         <v>42684</v>
       </c>
-      <c r="I8" s="50">
+      <c r="I8" s="22">
         <v>42690</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="25">
         <v>6</v>
       </c>
-      <c r="K8" s="12">
-        <v>42684</v>
-      </c>
-      <c r="L8" s="12">
-        <v>42684</v>
-      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="4"/>
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="40"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="4" t="s">
         <v>95</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="12">
-        <v>42684</v>
-      </c>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="4"/>
       <c r="N9" s="9"/>
     </row>
     <row r="10" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="40"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="54"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="12"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
       <c r="N10" s="9"/>
     </row>
     <row r="11" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="40"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
       <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="55"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="12"/>
       <c r="L11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" s="9"/>
     </row>
     <row r="12" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="40"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34" t="s">
         <v>62</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -1337,13 +1331,13 @@
       <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="50">
+      <c r="H12" s="22">
         <v>42691</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="22">
         <v>42693</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="25">
         <v>3</v>
       </c>
       <c r="K12" s="12"/>
@@ -1352,63 +1346,63 @@
       <c r="N12" s="9"/>
     </row>
     <row r="13" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="40"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="54"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="12"/>
       <c r="L13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" s="9"/>
     </row>
     <row r="14" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="40"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="54"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="12"/>
       <c r="L14" s="5"/>
       <c r="M14" s="4"/>
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="2:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="40"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="55"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="12"/>
       <c r="L15" s="5"/>
       <c r="M15" s="4"/>
       <c r="N15" s="9"/>
     </row>
     <row r="16" spans="2:15" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="40"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1417,13 +1411,13 @@
       <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="50">
+      <c r="H16" s="22">
         <v>42695</v>
       </c>
-      <c r="I16" s="50">
+      <c r="I16" s="22">
         <v>42698</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="25">
         <v>4</v>
       </c>
       <c r="K16" s="12"/>
@@ -1432,189 +1426,189 @@
       <c r="N16" s="9"/>
     </row>
     <row r="17" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="40"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="54"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="12"/>
       <c r="L17" s="5"/>
       <c r="M17" s="4"/>
       <c r="N17" s="9"/>
     </row>
     <row r="18" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="40"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="54"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="12"/>
       <c r="L18" s="5"/>
       <c r="M18" s="4"/>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="40"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="54"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="12"/>
       <c r="L19" s="5"/>
       <c r="M19" s="4"/>
       <c r="N19" s="9"/>
     </row>
     <row r="20" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="40"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="54"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="12"/>
       <c r="L20" s="5"/>
       <c r="M20" s="4"/>
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="40"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="54"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="12"/>
       <c r="L21" s="5"/>
       <c r="M21" s="4"/>
       <c r="N21" s="9"/>
     </row>
     <row r="22" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="40"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="54"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="12"/>
       <c r="L22" s="5"/>
       <c r="M22" s="4"/>
       <c r="N22" s="9"/>
     </row>
     <row r="23" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="40"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="54"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="12"/>
       <c r="L23" s="5"/>
       <c r="M23" s="4"/>
       <c r="N23" s="9"/>
     </row>
     <row r="24" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="40"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="54"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="12"/>
       <c r="L24" s="5"/>
       <c r="M24" s="4"/>
       <c r="N24" s="9"/>
     </row>
     <row r="25" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="40"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="54"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="12"/>
       <c r="L25" s="5"/>
       <c r="M25" s="4"/>
       <c r="N25" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="40"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="55"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="12"/>
       <c r="L26" s="5"/>
       <c r="M26" s="4"/>
       <c r="N26" s="9"/>
     </row>
     <row r="27" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="40"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33" t="s">
+      <c r="C27" s="29"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34" t="s">
         <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
@@ -1623,13 +1617,13 @@
       <c r="G27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="22">
         <v>42699</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="22">
         <v>42703</v>
       </c>
-      <c r="J27" s="53">
+      <c r="J27" s="25">
         <v>4</v>
       </c>
       <c r="K27" s="12"/>
@@ -1638,171 +1632,171 @@
       <c r="N27" s="9"/>
     </row>
     <row r="28" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="40"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="54"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="12"/>
       <c r="L28" s="5"/>
       <c r="M28" s="4"/>
       <c r="N28" s="9"/>
     </row>
     <row r="29" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="40"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="54"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="12"/>
       <c r="L29" s="5"/>
       <c r="M29" s="4"/>
       <c r="N29" s="9"/>
     </row>
     <row r="30" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="40"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="54"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="12"/>
       <c r="L30" s="5"/>
       <c r="M30" s="4"/>
       <c r="N30" s="9"/>
     </row>
     <row r="31" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="40"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="4" t="s">
         <v>47</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="54"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="12"/>
       <c r="L31" s="5"/>
       <c r="M31" s="4"/>
       <c r="N31" s="9"/>
     </row>
     <row r="32" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="40"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="4" t="s">
         <v>48</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="54"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="12"/>
       <c r="L32" s="5"/>
       <c r="M32" s="4"/>
       <c r="N32" s="9"/>
     </row>
     <row r="33" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="40"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="54"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="12"/>
       <c r="L33" s="5"/>
       <c r="M33" s="4"/>
       <c r="N33" s="9"/>
     </row>
     <row r="34" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="40"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="4" t="s">
         <v>50</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="54"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="12"/>
       <c r="L34" s="5"/>
       <c r="M34" s="4"/>
       <c r="N34" s="9"/>
     </row>
     <row r="35" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="40"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="54"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="12"/>
       <c r="L35" s="5"/>
       <c r="M35" s="4"/>
       <c r="N35" s="9"/>
     </row>
     <row r="36" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="40"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="4" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="55"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="12"/>
       <c r="L36" s="5"/>
       <c r="M36" s="4"/>
       <c r="N36" s="9"/>
     </row>
     <row r="37" spans="3:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="40"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33" t="s">
+      <c r="C37" s="29"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34" t="s">
         <v>65</v>
       </c>
       <c r="F37" s="4" t="s">
@@ -1811,13 +1805,13 @@
       <c r="G37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H37" s="50">
+      <c r="H37" s="22">
         <v>42704</v>
       </c>
-      <c r="I37" s="50">
+      <c r="I37" s="22">
         <v>42710</v>
       </c>
-      <c r="J37" s="53">
+      <c r="J37" s="25">
         <v>6</v>
       </c>
       <c r="K37" s="12"/>
@@ -1826,47 +1820,47 @@
       <c r="N37" s="17"/>
     </row>
     <row r="38" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="40"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="4" t="s">
         <v>54</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H38" s="51"/>
-      <c r="I38" s="51"/>
-      <c r="J38" s="54"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="12"/>
       <c r="L38" s="5"/>
       <c r="M38" s="4"/>
       <c r="N38" s="17"/>
     </row>
     <row r="39" spans="3:14" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="40"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
       <c r="F39" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="55"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="27"/>
       <c r="K39" s="12"/>
       <c r="L39" s="5"/>
       <c r="M39" s="4"/>
       <c r="N39" s="17"/>
     </row>
     <row r="40" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="40"/>
-      <c r="D40" s="33" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="34" t="s">
         <v>69</v>
       </c>
       <c r="F40" s="4" t="s">
@@ -1875,13 +1869,13 @@
       <c r="G40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H40" s="50">
+      <c r="H40" s="22">
         <v>42711</v>
       </c>
-      <c r="I40" s="50">
+      <c r="I40" s="22">
         <v>42714</v>
       </c>
-      <c r="J40" s="53">
+      <c r="J40" s="25">
         <v>4</v>
       </c>
       <c r="K40" s="12"/>
@@ -1890,44 +1884,44 @@
       <c r="N40" s="13"/>
     </row>
     <row r="41" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="40"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="4" t="s">
         <v>71</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="54"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="12"/>
       <c r="L41" s="5"/>
       <c r="M41" s="4"/>
       <c r="N41" s="13"/>
     </row>
     <row r="42" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="40"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="4" t="s">
         <v>73</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-      <c r="J42" s="55"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="27"/>
       <c r="K42" s="12"/>
       <c r="L42" s="5"/>
       <c r="M42" s="4"/>
       <c r="N42" s="13"/>
     </row>
     <row r="43" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="40"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="8" t="s">
         <v>72</v>
       </c>
@@ -1937,13 +1931,13 @@
       <c r="G43" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="50">
+      <c r="H43" s="22">
         <v>42716</v>
       </c>
-      <c r="I43" s="50">
+      <c r="I43" s="22">
         <v>42728</v>
       </c>
-      <c r="J43" s="53">
+      <c r="J43" s="25">
         <v>12</v>
       </c>
       <c r="K43" s="12"/>
@@ -1952,8 +1946,8 @@
       <c r="N43" s="13"/>
     </row>
     <row r="44" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="40"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="8" t="s">
         <v>62</v>
       </c>
@@ -1963,17 +1957,17 @@
       <c r="G44" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="54"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="12"/>
       <c r="L44" s="5"/>
       <c r="M44" s="4"/>
       <c r="N44" s="13"/>
     </row>
     <row r="45" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="40"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="8" t="s">
         <v>63</v>
       </c>
@@ -1983,17 +1977,17 @@
       <c r="G45" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="54"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="12"/>
       <c r="L45" s="5"/>
       <c r="M45" s="4"/>
       <c r="N45" s="13"/>
     </row>
     <row r="46" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="40"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="8" t="s">
         <v>64</v>
       </c>
@@ -2003,17 +1997,17 @@
       <c r="G46" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="51"/>
-      <c r="I46" s="51"/>
-      <c r="J46" s="54"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="12"/>
       <c r="L46" s="5"/>
       <c r="M46" s="4"/>
       <c r="N46" s="13"/>
     </row>
     <row r="47" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="40"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="8" t="s">
         <v>65</v>
       </c>
@@ -2023,18 +2017,18 @@
       <c r="G47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
-      <c r="J47" s="55"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="12"/>
       <c r="L47" s="5"/>
       <c r="M47" s="4"/>
       <c r="N47" s="13"/>
     </row>
     <row r="48" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="40"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="33" t="s">
+      <c r="C48" s="29"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="34" t="s">
         <v>76</v>
       </c>
       <c r="F48" s="4" t="s">
@@ -2043,13 +2037,13 @@
       <c r="G48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H48" s="50">
+      <c r="H48" s="22">
         <v>42730</v>
       </c>
-      <c r="I48" s="50">
+      <c r="I48" s="22">
         <v>42732</v>
       </c>
-      <c r="J48" s="53">
+      <c r="J48" s="25">
         <v>3</v>
       </c>
       <c r="K48" s="12"/>
@@ -2058,114 +2052,114 @@
       <c r="N48" s="13"/>
     </row>
     <row r="49" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="40"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="33"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="34"/>
       <c r="F49" s="4" t="s">
         <v>78</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="51"/>
-      <c r="I49" s="51"/>
-      <c r="J49" s="54"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="26"/>
       <c r="K49" s="12"/>
       <c r="L49" s="5"/>
       <c r="M49" s="4"/>
       <c r="N49" s="13"/>
     </row>
     <row r="50" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="40"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="33"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="34"/>
       <c r="F50" s="4" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H50" s="51"/>
-      <c r="I50" s="51"/>
-      <c r="J50" s="54"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="26"/>
       <c r="K50" s="12"/>
       <c r="L50" s="5"/>
       <c r="M50" s="4"/>
       <c r="N50" s="13"/>
     </row>
     <row r="51" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="40"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="33"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="54"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="26"/>
       <c r="K51" s="12"/>
       <c r="L51" s="5"/>
       <c r="M51" s="4"/>
       <c r="N51" s="13"/>
     </row>
     <row r="52" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="40"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="33"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="34"/>
       <c r="F52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H52" s="51"/>
-      <c r="I52" s="51"/>
-      <c r="J52" s="54"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="26"/>
       <c r="K52" s="12"/>
       <c r="L52" s="5"/>
       <c r="M52" s="4"/>
       <c r="N52" s="13"/>
     </row>
     <row r="53" spans="3:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="40"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="33"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="55"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="12"/>
       <c r="L53" s="5"/>
       <c r="M53" s="4"/>
       <c r="N53" s="13"/>
     </row>
     <row r="54" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="40"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="22" t="s">
+      <c r="C54" s="29"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="19" t="s">
         <v>80</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="34" t="s">
+      <c r="G54" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="H54" s="50">
+      <c r="H54" s="22">
         <v>42733</v>
       </c>
-      <c r="I54" s="50">
+      <c r="I54" s="22">
         <v>42733</v>
       </c>
-      <c r="J54" s="53">
+      <c r="J54" s="25">
         <v>1</v>
       </c>
       <c r="K54" s="8"/>
@@ -2174,25 +2168,25 @@
       <c r="N54" s="7"/>
     </row>
     <row r="55" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="40"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="23"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G55" s="35"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="55"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="5"/>
       <c r="N55" s="7"/>
     </row>
     <row r="56" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="40"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="22" t="s">
+      <c r="C56" s="29"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="19" t="s">
         <v>81</v>
       </c>
       <c r="F56" s="14" t="s">
@@ -2201,13 +2195,13 @@
       <c r="G56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H56" s="50">
+      <c r="H56" s="22">
         <v>42734</v>
       </c>
-      <c r="I56" s="50">
+      <c r="I56" s="22">
         <v>42734</v>
       </c>
-      <c r="J56" s="53">
+      <c r="J56" s="25">
         <v>1</v>
       </c>
       <c r="K56" s="10"/>
@@ -2216,26 +2210,26 @@
       <c r="N56" s="16"/>
     </row>
     <row r="57" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="40"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="21"/>
       <c r="F57" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="51"/>
-      <c r="I57" s="51"/>
-      <c r="J57" s="54"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="26"/>
       <c r="K57" s="10"/>
       <c r="L57" s="8"/>
       <c r="M57" s="4"/>
       <c r="N57" s="16"/>
     </row>
     <row r="58" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="41"/>
-      <c r="D58" s="38"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="8" t="s">
         <v>82</v>
       </c>
@@ -2245,20 +2239,20 @@
       <c r="G58" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="55"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
       <c r="M58" s="5"/>
       <c r="N58" s="7"/>
     </row>
     <row r="59" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="39" t="s">
+      <c r="C59" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
       <c r="F59" s="4" t="s">
         <v>84</v>
       </c>
@@ -2267,16 +2261,16 @@
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
-      <c r="J59" s="22"/>
+      <c r="J59" s="19"/>
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="5"/>
       <c r="N59" s="7"/>
     </row>
     <row r="60" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="40"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="44"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="4" t="s">
         <v>85</v>
       </c>
@@ -2285,16 +2279,16 @@
       </c>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
-      <c r="J60" s="49"/>
+      <c r="J60" s="20"/>
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="5"/>
       <c r="N60" s="7"/>
     </row>
     <row r="61" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="40"/>
-      <c r="D61" s="44"/>
-      <c r="E61" s="44"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="4" t="s">
         <v>86</v>
       </c>
@@ -2303,16 +2297,16 @@
       </c>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
-      <c r="J61" s="49"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="5"/>
       <c r="N61" s="7"/>
     </row>
     <row r="62" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="40"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="4" t="s">
         <v>87</v>
       </c>
@@ -2321,16 +2315,16 @@
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
-      <c r="J62" s="49"/>
+      <c r="J62" s="20"/>
       <c r="K62" s="8"/>
       <c r="L62" s="8"/>
       <c r="M62" s="5"/>
       <c r="N62" s="7"/>
     </row>
     <row r="63" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="41"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="45"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="4" t="s">
         <v>88</v>
       </c>
@@ -2339,84 +2333,84 @@
       </c>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
-      <c r="J63" s="23"/>
+      <c r="J63" s="21"/>
       <c r="K63" s="8"/>
       <c r="L63" s="8"/>
       <c r="M63" s="5"/>
       <c r="N63" s="7"/>
     </row>
     <row r="64" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="39" t="s">
+      <c r="C64" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="22"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
-      <c r="J64" s="22"/>
+      <c r="J64" s="19"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="5"/>
       <c r="N64" s="7"/>
     </row>
     <row r="65" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="40"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="49"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="20"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="J65" s="49"/>
+      <c r="J65" s="20"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="5"/>
       <c r="N65" s="7"/>
     </row>
     <row r="66" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="40"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="49"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
-      <c r="J66" s="49"/>
+      <c r="J66" s="20"/>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
       <c r="M66" s="5"/>
       <c r="N66" s="7"/>
     </row>
     <row r="67" spans="3:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="41"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="23"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="33"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
-      <c r="J67" s="23"/>
+      <c r="J67" s="21"/>
       <c r="K67" s="8"/>
       <c r="L67" s="8"/>
       <c r="M67" s="5"/>
       <c r="N67" s="7"/>
     </row>
     <row r="68" spans="3:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="32"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="38"/>
+      <c r="M68" s="39"/>
       <c r="N68" s="18" t="s">
         <v>91</v>
       </c>
@@ -2440,37 +2434,28 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="J59:J63"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="H48:H53"/>
-    <mergeCell ref="I48:I53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="H56:H58"/>
-    <mergeCell ref="I56:I58"/>
-    <mergeCell ref="J56:J58"/>
-    <mergeCell ref="I43:I47"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="J43:J47"/>
-    <mergeCell ref="J48:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J16:J26"/>
-    <mergeCell ref="J27:J36"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="C59:C63"/>
-    <mergeCell ref="C64:C67"/>
-    <mergeCell ref="D64:D67"/>
-    <mergeCell ref="E64:E67"/>
-    <mergeCell ref="H27:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H43:H47"/>
-    <mergeCell ref="D5:D39"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D40:D47"/>
-    <mergeCell ref="E59:E63"/>
-    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="I27:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="H8:H11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="H16:H26"/>
+    <mergeCell ref="I16:I26"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N3:N4"/>
     <mergeCell ref="C68:M68"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="E5:E7"/>
@@ -2487,28 +2472,37 @@
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="E16:E26"/>
     <mergeCell ref="E27:E36"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="C2:K2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="I27:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="H8:H11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="H16:H26"/>
-    <mergeCell ref="I16:I26"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="C59:C63"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="D64:D67"/>
+    <mergeCell ref="E64:E67"/>
+    <mergeCell ref="H27:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="H43:H47"/>
+    <mergeCell ref="D5:D39"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D40:D47"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="D59:D63"/>
+    <mergeCell ref="J16:J26"/>
+    <mergeCell ref="J27:J36"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="I43:I47"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="J43:J47"/>
+    <mergeCell ref="J48:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J59:J63"/>
+    <mergeCell ref="J64:J67"/>
+    <mergeCell ref="H48:H53"/>
+    <mergeCell ref="I48:I53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J56:J58"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
